--- a/activity/Population/PoblacionRNEC.xlsx
+++ b/activity/Population/PoblacionRNEC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\Population\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B71608-879C-42A5-BAFA-68C37C7B579C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E1A485-087E-4C59-B216-E5FA5875BB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" tabRatio="769" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" tabRatio="769" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Censal" sheetId="2" r:id="rId1"/>
@@ -1342,8 +1342,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36233587641936904"/>
-          <c:y val="1.2110345980155313E-2"/>
+          <c:x val="0.31352837412521228"/>
+          <c:y val="1.4129869749878869E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -6258,9 +6258,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0463F7D-8A04-4EDE-8789-543ED0F016DA}">
   <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
@@ -6758,9 +6758,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF85B67-A9CB-4F86-9CEB-D63DBE20F700}">
   <dimension ref="B2:G23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6:E6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
@@ -8110,12 +8110,12 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD4"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.23046875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.61328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.765625" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.3046875" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.765625" style="2" customWidth="1"/>
